--- a/Documents/android自动化.xlsx
+++ b/Documents/android自动化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="11715" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="genymontion模拟器使用-day01" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="滑动和元素等待" sheetId="4" r:id="rId3"/>
     <sheet name="python" sheetId="5" r:id="rId4"/>
     <sheet name="常用的app" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
   <si>
     <t>1.安装模拟器</t>
   </si>
@@ -146,6 +147,171 @@
     <t xml:space="preserve">   duration 滑动时间（默认5毫秒）；</t>
   </si>
   <si>
+    <r>
+      <t>（3）使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>content-desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定位</t>
+    </r>
+  </si>
+  <si>
+    <t>driver.find_element_by_android_uiautomator('new UiSelector().description("Remove")')</t>
+  </si>
+  <si>
+    <r>
+      <t>（4）有问题的页面，一直使用元素定位怎么也获取不到。可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来模拟点击操作</t>
+    </r>
+  </si>
+  <si>
+    <t># 模拟手指点击操作</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.driver.tap([(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>454</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>188</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>515</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>滑动</t>
   </si>
   <si>
@@ -156,6 +322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>def</t>
     </r>
     <r>
@@ -179,6 +351,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -247,6 +425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -315,6 +499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -350,6 +540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>def</t>
     </r>
     <r>
@@ -373,6 +569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -423,6 +625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -563,6 +771,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -703,6 +917,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -843,6 +1063,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -860,6 +1086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>def</t>
     </r>
     <r>
@@ -883,6 +1115,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1023,6 +1261,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1162,7 +1406,18 @@
     </r>
   </si>
   <si>
-    <t>#屏幕向左滑动</t>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008200"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>屏幕向左滑动</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1189,6 +1444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1221,6 +1482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1307,6 +1574,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1393,6 +1666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1496,6 +1775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>def</t>
     </r>
     <r>
@@ -1519,6 +1804,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1605,6 +1896,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1690,10 +1987,36 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dr.swipe(x1,y1,x2,y1,t)</t>
+    </r>
+  </si>
+  <si>
     <t>#调用向左滑动</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>swipLeft(</t>
     </r>
     <r>
@@ -1717,6 +2040,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>sleep(</t>
     </r>
     <r>
@@ -1743,6 +2072,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>swipRight(</t>
     </r>
     <r>
@@ -1769,6 +2104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>swipeUp(</t>
     </r>
     <r>
@@ -1795,6 +2136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>swipeDown(</t>
     </r>
     <r>
@@ -1830,6 +2177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>这里的等待函数是针对我们整个</t>
     </r>
     <r>
@@ -1879,9 +2232,47 @@
     <t>WebDriverWait(driver, timeout, poll_frequency=0.5, ignored_exceptions=None)</t>
   </si>
   <si>
+    <t>导入包：</t>
+  </si>
+  <si>
     <t>driver：是我们操作的driver。</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">selenium.webdriver.support.wait </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WebDriverWait</t>
+    </r>
+  </si>
+  <si>
     <t>timeout：长超时时间，默认以秒为单位</t>
   </si>
   <si>
@@ -1912,234 +2303,35 @@
     <t>在10秒内每5秒去查找一个id为sss的元素，如果没找到那么就报错</t>
   </si>
   <si>
-    <t>1.lambda表达式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  返回值</t>
-  </si>
-  <si>
-    <r>
-      <t>def</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>appiumDriver(driver):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>driver.find_element_by_id(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"xxxxx"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">参数 </t>
-  </si>
-  <si>
-    <t>2.python的各种推导式（列表推导式、字典推导式、集合推导式）</t>
-  </si>
-  <si>
-    <t>推导式comprehensions（又称解析式），是Python的一种独有特性。推导式是可以从一个数据序列构建另一个新的数据序列的结构体。 共有三种推导，在Python2和3中都有支持：</t>
-  </si>
-  <si>
-    <t>列表(list)推导式</t>
-  </si>
-  <si>
-    <t>字典(dict)推导式</t>
-  </si>
-  <si>
-    <t>集合(set)推导式</t>
-  </si>
-  <si>
-    <t>一、列表推导式</t>
-  </si>
-  <si>
-    <t>1、使用[]生成list</t>
-  </si>
-  <si>
-    <t>基本格式</t>
-  </si>
-  <si>
-    <t>variable = [out_exp_res for out_exp in input_list if out_exp == 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  out_exp_res:　　列表生成元素表达式，可以是有返回值的函数。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  for out_exp in input_list：　　迭代input_list将out_exp传入out_exp_res表达式中。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if out_exp == 2：　　根据条件过滤哪些值可以。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>例一：</t>
-  </si>
-  <si>
-    <t>例二：</t>
-  </si>
-  <si>
-    <t>multiples = [i for i in range(30) if i % 3 is 0]</t>
-  </si>
-  <si>
-    <t>def squared(x):</t>
-  </si>
-  <si>
-    <t>print(multiples)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return x*x</t>
-  </si>
-  <si>
-    <t># Output: [0, 3, 6, 9, 12, 15, 18, 21, 24, 27]</t>
-  </si>
-  <si>
-    <t>multiples = [squared(i) for i in range(30) if i % 3 is 0]</t>
-  </si>
-  <si>
-    <t>print multiples</t>
-  </si>
-  <si>
-    <t>#  Output: [0, 9, 36, 81, 144, 225, 324, 441, 576, 729]</t>
-  </si>
-  <si>
-    <t>2、使用()生成generator</t>
-  </si>
-  <si>
-    <t>将俩表推导式的[]改成()即可得到生成器。</t>
-  </si>
-  <si>
-    <t>multiples = (i for i in range(30) if i % 3 is 0)</t>
-  </si>
-  <si>
-    <t>print(type(multiples))</t>
-  </si>
-  <si>
-    <t>#  Output: &lt;type 'generator'&gt;</t>
-  </si>
-  <si>
-    <t>二、字典推导式</t>
-  </si>
-  <si>
-    <t>字典推导和列表推导的使用方法是类似的，只不中括号该改成大括号。直接举例说明：</t>
-  </si>
-  <si>
-    <t>例子一：大小写key合并</t>
-  </si>
-  <si>
-    <t>例子二：快速更换key和value</t>
-  </si>
-  <si>
-    <t>mcase = {'a': 10, 'b': 34, 'A': 7, 'Z': 3}</t>
-  </si>
-  <si>
-    <t>mcase_frequency = {</t>
-  </si>
-  <si>
-    <t>mcase = {'a': 10, 'b': 34}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    k.lower(): mcase.get(k.lower(), 0) + mcase.get(k.upper(), 0)</t>
-  </si>
-  <si>
-    <t>mcase_frequency = {v: k for k, v in mcase.items()}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for k in mcase.keys()</t>
-  </si>
-  <si>
-    <t>print mcase_frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if k.lower() in ['a','b']</t>
-  </si>
-  <si>
-    <t>#  Output: {10: 'a', 34: 'b'}</t>
-  </si>
-  <si>
-    <t>#  Output: {'a': 17, 'b': 34}</t>
-  </si>
-  <si>
-    <t>三、集合推导式</t>
-  </si>
-  <si>
-    <t>它们跟列表推导式也是类似的。 唯一的区别在于它使用大括号{}。</t>
-  </si>
-  <si>
-    <t>squared = {x**2 for x in [1, 1, 2]}</t>
-  </si>
-  <si>
-    <t>print(squared)</t>
-  </si>
-  <si>
-    <t># Output: set([1, 4])</t>
-  </si>
-  <si>
-    <t>计算器：</t>
-  </si>
-  <si>
-    <r>
-      <t>desired_caps[</t>
+    <t>Appium 三种wait方法（appium 学习之改造轮子）：</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/tobecrazy/p/4596214.html</t>
+  </si>
+  <si>
+    <t>WebDriverWait wait = new WebDriverWait(driver, 60);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WebElement e= wait.until(new  ExpectedCondition&lt;WebElement&gt;() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            public WebElement apply(WebDriver d) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return d.findElement(By.id("q"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        })</t>
+  </si>
+  <si>
+    <r>
+      <t>driver.wait_activity(</t>
     </r>
     <r>
       <rPr>
@@ -2149,16 +2341,361 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'appPackage'</t>
-    </r>
-    <r>
-      <rPr>
+      <t>".permission.ui.GrantPermissionsActivity"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">] = </t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>等xxx activity出现,30秒内</t>
+  </si>
+  <si>
+    <t>滑动（java）</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This Method for swipe up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * @author Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * @param driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * @param during</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void swipeToUp(AndroidDriver driver, int during) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int width = driver.manage().window().getSize().width;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int height = driver.manage().window().getSize().height;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        driver.swipe(width / 2, height * 3 / 4, width / 2, height / 4, during);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // wait for page loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This Method for swipe down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void swipeToDown(AndroidDriver driver, int during) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        driver.swipe(width / 2, height / 4, width / 2, height * 3 / 4, during);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This Method for swipe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void swipeToLeft(AndroidDriver driver, int during) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        driver.swipe(width * 3 / 4, height / 2, width / 4, height / 2, during);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This Method for swipe Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void swipeToRight(AndroidDriver driver, int during) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        driver.swipe(width / 4, height / 2, width * 3 / 4, height / 2, during);</t>
+  </si>
+  <si>
+    <t>1.lambda表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  返回值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>appiumDriver(driver):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>driver.find_element_by_id(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"xxxxx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">参数 </t>
+  </si>
+  <si>
+    <t>2.python的各种推导式（列表推导式、字典推导式、集合推导式）</t>
+  </si>
+  <si>
+    <t>推导式comprehensions（又称解析式），是Python的一种独有特性。推导式是可以从一个数据序列构建另一个新的数据序列的结构体。 共有三种推导，在Python2和3中都有支持：</t>
+  </si>
+  <si>
+    <t>列表(list)推导式</t>
+  </si>
+  <si>
+    <t>字典(dict)推导式</t>
+  </si>
+  <si>
+    <t>集合(set)推导式</t>
+  </si>
+  <si>
+    <t>一、列表推导式</t>
+  </si>
+  <si>
+    <t>1、使用[]生成list</t>
+  </si>
+  <si>
+    <t>基本格式</t>
+  </si>
+  <si>
+    <t>variable = [out_exp_res for out_exp in input_list if out_exp == 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  out_exp_res:　　列表生成元素表达式，可以是有返回值的函数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for out_exp in input_list：　　迭代input_list将out_exp传入out_exp_res表达式中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if out_exp == 2：　　根据条件过滤哪些值可以。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>例一：</t>
+  </si>
+  <si>
+    <t>例二：</t>
+  </si>
+  <si>
+    <t>multiples = [i for i in range(30) if i % 3 is 0]</t>
+  </si>
+  <si>
+    <t>def squared(x):</t>
+  </si>
+  <si>
+    <t>print(multiples)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return x*x</t>
+  </si>
+  <si>
+    <t># Output: [0, 3, 6, 9, 12, 15, 18, 21, 24, 27]</t>
+  </si>
+  <si>
+    <t>multiples = [squared(i) for i in range(30) if i % 3 is 0]</t>
+  </si>
+  <si>
+    <t>print multiples</t>
+  </si>
+  <si>
+    <t>#  Output: [0, 9, 36, 81, 144, 225, 324, 441, 576, 729]</t>
+  </si>
+  <si>
+    <t>2、使用()生成generator</t>
+  </si>
+  <si>
+    <t>将俩表推导式的[]改成()即可得到生成器。</t>
+  </si>
+  <si>
+    <t>multiples = (i for i in range(30) if i % 3 is 0)</t>
+  </si>
+  <si>
+    <t>print(type(multiples))</t>
+  </si>
+  <si>
+    <t>#  Output: &lt;type 'generator'&gt;</t>
+  </si>
+  <si>
+    <t>二、字典推导式</t>
+  </si>
+  <si>
+    <t>字典推导和列表推导的使用方法是类似的，只不中括号该改成大括号。直接举例说明：</t>
+  </si>
+  <si>
+    <t>例子一：大小写key合并</t>
+  </si>
+  <si>
+    <t>例子二：快速更换key和value</t>
+  </si>
+  <si>
+    <t>mcase = {'a': 10, 'b': 34, 'A': 7, 'Z': 3}</t>
+  </si>
+  <si>
+    <t>mcase_frequency = {</t>
+  </si>
+  <si>
+    <t>mcase = {'a': 10, 'b': 34}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    k.lower(): mcase.get(k.lower(), 0) + mcase.get(k.upper(), 0)</t>
+  </si>
+  <si>
+    <t>mcase_frequency = {v: k for k, v in mcase.items()}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for k in mcase.keys()</t>
+  </si>
+  <si>
+    <t>print mcase_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if k.lower() in ['a','b']</t>
+  </si>
+  <si>
+    <t>#  Output: {10: 'a', 34: 'b'}</t>
+  </si>
+  <si>
+    <t>#  Output: {'a': 17, 'b': 34}</t>
+  </si>
+  <si>
+    <t>三、集合推导式</t>
+  </si>
+  <si>
+    <t>它们跟列表推导式也是类似的。 唯一的区别在于它使用大括号{}。</t>
+  </si>
+  <si>
+    <t>squared = {x**2 for x in [1, 1, 2]}</t>
+  </si>
+  <si>
+    <t>print(squared)</t>
+  </si>
+  <si>
+    <t># Output: set([1, 4])</t>
+  </si>
+  <si>
+    <t>计算器：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>desired_caps[</t>
     </r>
     <r>
       <rPr>
@@ -2168,12 +2705,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'com.android.calculator2'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>desired_caps[</t>
+      <t>'appPackage'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
     </r>
     <r>
       <rPr>
@@ -2183,8 +2724,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'appActivity'</t>
-    </r>
+      <t>'com.android.calculator2'</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -2192,7 +2735,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">] = </t>
+      <t>desired_caps[</t>
     </r>
     <r>
       <rPr>
@@ -2202,8 +2745,387 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>'appActivity'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>'.Calculator'</t>
     </r>
+  </si>
+  <si>
+    <t>''.appium api第二弹 锋利的python,这是初稿,2015/1/5</t>
+  </si>
+  <si>
+    <t>如有错误的地方，请同学们进行留言，我会及时予以修改，尽量整合一份ok的api</t>
+  </si>
+  <si>
+    <t>作者：Mads Spiral QQ：79523822 如有疑问留言或者加qq，验证wyx</t>
+  </si>
+  <si>
+    <t>若要转载，请标注原著地址</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>#默认系统语言对应的Strings.xml文件内的数据。</t>
+  </si>
+  <si>
+    <t>get_app_string()</t>
+  </si>
+  <si>
+    <t>#查找某一个语言环境对应的字符串文件Strings.xml内数据</t>
+  </si>
+  <si>
+    <t>get_app_string(String language)</t>
+  </si>
+  <si>
+    <t>#按下某个键，具体哪个键由key值决定，key值定义在AndroidKeyCode类中</t>
+  </si>
+  <si>
+    <t>send_key_event(int key)</t>
+  </si>
+  <si>
+    <t>#获取当前activity,比如（.ApiDemos）</t>
+  </si>
+  <si>
+    <t>current_activity()</t>
+  </si>
+  <si>
+    <t>#根据bundleId来判断该应用是否已经安装</t>
+  </si>
+  <si>
+    <t>is_app_installed(String bundleId)</t>
+  </si>
+  <si>
+    <t>#安装app，appPath为应用的本地路径</t>
+  </si>
+  <si>
+    <t>install_app(String appPath)</t>
+  </si>
+  <si>
+    <t>#卸载app.bundleId在android中代表的是报名，而在ios中有专门的bundleId号。</t>
+  </si>
+  <si>
+    <t>remove_app(String bundleId)</t>
+  </si>
+  <si>
+    <t>#关闭应用，其实就是按home键把应用置于后台</t>
+  </si>
+  <si>
+    <t>close_app()</t>
+  </si>
+  <si>
+    <t>#启动应用</t>
+  </si>
+  <si>
+    <t>launch_app()</t>
+  </si>
+  <si>
+    <t>#先closeApp然后在launchAPP</t>
+  </si>
+  <si>
+    <t>reset_app()</t>
+  </si>
+  <si>
+    <t>#将字符数组用64位格式写到远程目录的某个文件中。也可以理解为把本地文件push到设备上。</t>
+  </si>
+  <si>
+    <t>push_file(String remotePath, byte[] base64Data)</t>
+  </si>
+  <si>
+    <t>#将设备上的文件pull到本地硬盘上</t>
+  </si>
+  <si>
+    <t>pull_file(String remotePath)</t>
+  </si>
+  <si>
+    <t>#将设备上的文件夹pull到本地硬盘上，一般远程文件为/data/local/tmp下的文件。</t>
+  </si>
+  <si>
+    <t>pull_folder(String remotePath)</t>
+  </si>
+  <si>
+    <t>#设置手机的网络连接状态，可以开关蓝牙、wifi、数据流量。通过NetworkConnectionSetting中的属性来设置各个网络连接的状态。</t>
+  </si>
+  <si>
+    <t>set_network_connect(NetworkConnectionSetting connection)</t>
+  </si>
+  <si>
+    <t>#得到当前网络的状态</t>
+  </si>
+  <si>
+    <t>get_network_connection()</t>
+  </si>
+  <si>
+    <t>#ios隐藏键盘</t>
+  </si>
+  <si>
+    <t>hide_keyboard()</t>
+  </si>
+  <si>
+    <t>#隐藏键盘，只能用于ios上。</t>
+  </si>
+  <si>
+    <t>hide_keyboard(String strategy, String keyName)</t>
+  </si>
+  <si>
+    <t>#执行一个touch动作，该touch动作是由TouchAction封装的。</t>
+  </si>
+  <si>
+    <t>perform_touchAction(TouchAction touchAction)</t>
+  </si>
+  <si>
+    <t>#点击element控件中心点按下，duration*5毫秒秒后松开，如此重复fingers次。</t>
+  </si>
+  <si>
+    <t>tap(int fingers, WebElement element, int duration)</t>
+  </si>
+  <si>
+    <t>#点击(x,y)点按下，duration*5毫秒后松开，如此重复fingers次。</t>
+  </si>
+  <si>
+    <t>tap(int fingers, int x, int y, int duration)</t>
+  </si>
+  <si>
+    <t>#从(startx,starty)滑到（endx,endy），分duration步滑，每一步用时是5毫秒。</t>
+  </si>
+  <si>
+    <t>swipe(int startx, int starty, int endx, int endy, int duration)</t>
+  </si>
+  <si>
+    <t>#2个手指操作控件，从对角线向中心点滑动。</t>
+  </si>
+  <si>
+    <t>pinch(WebElement el)</t>
+  </si>
+  <si>
+    <t>#以（x,y）为基准，计算得出（x,y-100）,(x,y+100)两个点，然后2个手指按住这两个点同时滑到（x,y）</t>
+  </si>
+  <si>
+    <t>pinch(int x, int y)</t>
+  </si>
+  <si>
+    <t>#与pinch(el)的动作刚好相反。两个手指由控件的中心点慢慢向控件的左顶点后右底点滑动。</t>
+  </si>
+  <si>
+    <t>zoom(WebElement el)</t>
+  </si>
+  <si>
+    <t>#和pinch(x,y)相反。两个手指从（x,y）点开始向（x,y-100）和（x,y+100）滑动。</t>
+  </si>
+  <si>
+    <t>zoom(int x, int y)</t>
+  </si>
+  <si>
+    <t>#锁屏多少秒后解锁</t>
+  </si>
+  <si>
+    <t>lock_screen(int seconds)</t>
+  </si>
+  <si>
+    <t>#模拟摇晃手机</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>#滚动到某个text属性为指定的字符串的控件</t>
+  </si>
+  <si>
+    <t>scroll_to(String text)</t>
+  </si>
+  <si>
+    <t>#滚动到某个text属性包含传入的字符串的控件</t>
+  </si>
+  <si>
+    <t>scroll_to_exact(String text)</t>
+  </si>
+  <si>
+    <t>#设置上下文</t>
+  </si>
+  <si>
+    <t>context(String name)</t>
+  </si>
+  <si>
+    <t>#可用上下文</t>
+  </si>
+  <si>
+    <t>get_context_handles()</t>
+  </si>
+  <si>
+    <t>#当前上下文</t>
+  </si>
+  <si>
+    <t>get_context()</t>
+  </si>
+  <si>
+    <t>#设置屏幕横屏或者竖屏</t>
+  </si>
+  <si>
+    <t>rotate(ScreenOrientation orientation)</t>
+  </si>
+  <si>
+    <t>#获取当前屏幕的方向</t>
+  </si>
+  <si>
+    <t>get_orientation()</t>
+  </si>
+  <si>
+    <t>#利用ios中的uiautomation中的属性来获取控件</t>
+  </si>
+  <si>
+    <t>find_element_by_ios_uiautomation(String using)</t>
+  </si>
+  <si>
+    <t>#和上面一样，不过获得的是多个控件</t>
+  </si>
+  <si>
+    <t>find_elements_by_ios_uiautomation(String using)</t>
+  </si>
+  <si>
+    <t>#利用android的uiautoamtor中的属性来获取单个控件。</t>
+  </si>
+  <si>
+    <t>find_element_by_android_uiautomator(String using)</t>
+  </si>
+  <si>
+    <t>#和上面一样，但是该方法获得是多个控件</t>
+  </si>
+  <si>
+    <t>find_elements_by_android_uiautomator(String using)</t>
+  </si>
+  <si>
+    <t>#利用accessibility id来获取单个控件</t>
+  </si>
+  <si>
+    <t>find_element_by_accessibilityid(String using)</t>
+  </si>
+  <si>
+    <t>#利用accessibility id来获得多个控件</t>
+  </si>
+  <si>
+    <t>find_elements_by_accessibilityid(String using)</t>
+  </si>
+  <si>
+    <t>''AppiumDriver的辅助类，主要针对手势操作，比如滑动、长按、拖动等。</t>
+  </si>
+  <si>
+    <t>TouchAction的原理是讲一系列的动作放在一个链条中，然后将该链条传递给服务器。</t>
+  </si>
+  <si>
+    <t>服务器接受到该链条后，解析各个动作，逐个执行。'''</t>
+  </si>
+  <si>
+    <t>TouchAction()</t>
+  </si>
+  <si>
+    <t>#在控件上执行press操作</t>
+  </si>
+  <si>
+    <t>press(WebElement el)</t>
+  </si>
+  <si>
+    <t>#在坐标为（x,y）的点执行press操作</t>
+  </si>
+  <si>
+    <t>press(int x, int y)</t>
+  </si>
+  <si>
+    <t>#在控件el的左上角的x坐标偏移x单位，y左边偏移y单位的坐标上执行press操作。</t>
+  </si>
+  <si>
+    <t>press(WebElement el, int x, int y)</t>
+  </si>
+  <si>
+    <t>#释放操作，代表该系列动作的一个结束标志。</t>
+  </si>
+  <si>
+    <t>release()</t>
+  </si>
+  <si>
+    <t>#以el为目标，从另一个点移动到该目标上</t>
+  </si>
+  <si>
+    <t>move_to(WebElement el)</t>
+  </si>
+  <si>
+    <t>#以（x,y）点为目标，从另一个点移动到该目标上</t>
+  </si>
+  <si>
+    <t>move_to(WebElement el, int x, int y)</t>
+  </si>
+  <si>
+    <t>#在控件的中心点上敲击一下</t>
+  </si>
+  <si>
+    <t>tap(WebElement el)</t>
+  </si>
+  <si>
+    <t>#在（x,y）点轻击一下</t>
+  </si>
+  <si>
+    <t>tap(int x, int y)</t>
+  </si>
+  <si>
+    <t>#以控件el的左上角为基准，x轴向右移动x单位，y轴向下移动y单位。在该点上轻击。</t>
+  </si>
+  <si>
+    <t>tap(WebElement el, int x, int y)</t>
+  </si>
+  <si>
+    <t>#代表一个空操作，等待一段时间</t>
+  </si>
+  <si>
+    <t>wait_action()</t>
+  </si>
+  <si>
+    <t>#等待ms秒</t>
+  </si>
+  <si>
+    <t>wait_action(int ms)</t>
+  </si>
+  <si>
+    <t>#控件长按</t>
+  </si>
+  <si>
+    <t>long_press(WebElement el)</t>
+  </si>
+  <si>
+    <t>#点长按</t>
+  </si>
+  <si>
+    <t>long_press(int x, int y)</t>
+  </si>
+  <si>
+    <t>#偏移点长按</t>
+  </si>
+  <si>
+    <t>long_press(WebElement el, int x, int y)</t>
+  </si>
+  <si>
+    <t>#取消执行该动作</t>
+  </si>
+  <si>
+    <t>cancel()</t>
+  </si>
+  <si>
+    <t>#执行该动作</t>
   </si>
 </sst>
 </file>
@@ -2211,12 +3133,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2284,9 +3206,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2297,33 +3241,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF94558D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2333,8 +3270,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,30 +3311,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2387,8 +3339,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2403,47 +3386,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2472,9 +3424,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF008200"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2487,25 +3473,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,66 +3546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,13 +3569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,13 +3587,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2637,37 +3641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,7 +3686,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2720,22 +3736,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2755,21 +3756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2783,152 +3769,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2947,9 +3933,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2962,13 +3945,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3269,20 +4276,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495935</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1520404665(1)"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="1520411289(1)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3295,8 +4302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="4819650"/>
-          <a:ext cx="4525010" cy="3382645"/>
+          <a:off x="7943850" y="4581525"/>
+          <a:ext cx="3534410" cy="2839085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3307,20 +4314,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59690</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>75565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>505460</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38735</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620395</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="1520411289(1)"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="1520560682(1)"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3333,8 +4340,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="8524875"/>
-          <a:ext cx="3534410" cy="2839085"/>
+          <a:off x="59690" y="8552815"/>
+          <a:ext cx="6732905" cy="4154170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="1520404665(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="438150"/>
+          <a:ext cx="4525010" cy="3382645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3384,6 +4429,53 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="9486900"/>
+          <a:ext cx="542925" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3868,8 +4960,8 @@
   <sheetPr/>
   <dimension ref="B2:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3895,7 +4987,7 @@
       </c>
     </row>
     <row r="64" ht="14.25" spans="2:2">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4011,8 +5103,8 @@
       <c r="C93" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
@@ -4030,87 +5122,119 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C67"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>28</v>
       </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="3:3">
-      <c r="C53" s="13" t="s">
+    <row r="30" ht="14.25" spans="3:3">
+      <c r="C30" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="2:2">
+      <c r="B49" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" spans="11:11">
+      <c r="K51" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" spans="8:11">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" spans="8:11">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C53" r:id="rId2" display="//android.widget.TextView[contains(@text,&quot;购物车&quot;)]" tooltip="https://testerhome.com/text"/>
+    <hyperlink ref="C30" r:id="rId2" display="//android.widget.TextView[contains(@text,&quot;购物车&quot;)]" tooltip="https://testerhome.com/text"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4122,329 +5246,657 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
-        <v>43</v>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="8" t="s">
-        <v>44</v>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="9" t="s">
-        <v>46</v>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9" t="s">
-        <v>47</v>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="9" t="s">
-        <v>48</v>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="8" t="s">
-        <v>49</v>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9" t="s">
-        <v>51</v>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9" t="s">
-        <v>52</v>
+      <c r="B13" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9" t="s">
-        <v>53</v>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9" t="s">
-        <v>54</v>
+      <c r="B15" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9" t="s">
-        <v>55</v>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
-        <v>56</v>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
-        <v>58</v>
+      <c r="B21" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9" t="s">
-        <v>59</v>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9" t="s">
-        <v>55</v>
+      <c r="B23" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8" t="s">
-        <v>60</v>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="9" t="s">
-        <v>62</v>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9" t="s">
-        <v>63</v>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9" t="s">
-        <v>64</v>
+      <c r="B28" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="9" t="s">
-        <v>65</v>
+      <c r="B29" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="9" t="s">
-        <v>66</v>
+      <c r="B30" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="8" t="s">
-        <v>67</v>
+      <c r="B31" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="9" t="s">
-        <v>62</v>
+      <c r="B33" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="9" t="s">
-        <v>70</v>
+      <c r="B36" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="9" t="s">
-        <v>66</v>
+      <c r="B37" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8" t="s">
-        <v>71</v>
+      <c r="B38" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8" t="s">
-        <v>74</v>
+      <c r="B41" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="10" t="s">
-        <v>84</v>
+      <c r="C52" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
+        <v>93</v>
+      </c>
+      <c r="M55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" spans="3:13">
       <c r="C56" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="14"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H70" r:id="rId2" display="http://www.cnblogs.com/tobecrazy/p/4596214.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4456,7 +5908,7 @@
   <sheetPr/>
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
@@ -4464,216 +5916,216 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="5:8">
       <c r="E3" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -4683,42 +6135,42 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4734,24 +6186,24 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4759,4 +6211,621 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Documents/android自动化.xlsx
+++ b/Documents/android自动化.xlsx
@@ -4,22 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="genymontion模拟器使用-day01" sheetId="2" r:id="rId1"/>
-    <sheet name="模拟器定位元素-day02" sheetId="1" r:id="rId2"/>
-    <sheet name="滑动和元素等待" sheetId="4" r:id="rId3"/>
-    <sheet name="python" sheetId="5" r:id="rId4"/>
-    <sheet name="常用的app" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="目录" sheetId="7" r:id="rId1"/>
+    <sheet name="genymontion使用" sheetId="2" r:id="rId2"/>
+    <sheet name="定位元素" sheetId="1" r:id="rId3"/>
+    <sheet name="滑动和元素等待" sheetId="4" r:id="rId4"/>
+    <sheet name="monitor" sheetId="8" r:id="rId5"/>
+    <sheet name="python" sheetId="5" r:id="rId6"/>
+    <sheet name="常用的app" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
+  <si>
+    <t>1.genymontion使用</t>
+  </si>
+  <si>
+    <t>2.定位元素</t>
+  </si>
+  <si>
+    <t>3.滑动和元素等待</t>
+  </si>
   <si>
     <t>1.安装模拟器</t>
   </si>
@@ -148,6 +159,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>（3）使用</t>
     </r>
     <r>
@@ -164,6 +180,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>定位</t>
@@ -174,12 +191,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>（4）有问题的页面，一直使用元素定位怎么也获取不到。可以使用</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>tap</t>
@@ -188,6 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>来模拟点击操作</t>
@@ -198,6 +222,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF94558D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>self</t>
     </r>
     <r>
@@ -312,6 +343,30 @@
     </r>
   </si>
   <si>
+    <t>（5）安卓特有的activity等待</t>
+  </si>
+  <si>
+    <t>实际使用的还是WebDriverWait</t>
+  </si>
+  <si>
+    <t>(6)获取当前activity下所有的元素</t>
+  </si>
+  <si>
+    <t>driver.find_element_by_xpath("//*")</t>
+  </si>
+  <si>
+    <t>（7）使用text定位：</t>
+  </si>
+  <si>
+    <t>driver.find_element_by_xpath("//android.widget.TextView[contains(@text, '卡乐')]")</t>
+  </si>
+  <si>
+    <t>driver.find_element_by_xpath("//android.widget.TextView[contains(@text, '我的')]")</t>
+  </si>
+  <si>
+    <t>driver.find_element_by_xpath("//*[@text='我的']")</t>
+  </si>
+  <si>
     <t>滑动</t>
   </si>
   <si>
@@ -1407,6 +1462,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008200"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -1421,6 +1482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>def</t>
     </r>
     <r>
@@ -1758,6 +1825,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1987,26 +2060,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dr.swipe(x1,y1,x2,y1,t)</t>
-    </r>
-  </si>
-  <si>
     <t>#调用向左滑动</t>
   </si>
   <si>
@@ -2238,19 +2291,6 @@
     <t>driver：是我们操作的driver。</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">selenium.webdriver.support.wait </t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -2259,7 +2299,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">import </t>
+      <t xml:space="preserve">from </t>
     </r>
     <r>
       <rPr>
@@ -2269,6 +2309,26 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">selenium.webdriver.support.wait </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>WebDriverWait</t>
     </r>
   </si>
@@ -2331,6 +2391,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>driver.wait_activity(</t>
     </r>
     <r>
@@ -3133,12 +3200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3263,31 +3330,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF808080"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3331,19 +3382,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3363,15 +3442,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3385,29 +3473,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF008000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3450,11 +3524,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3473,6 +3559,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3485,7 +3661,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3515,73 +3709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,61 +3739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3664,6 +3750,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3687,6 +3788,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3723,41 +3844,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3772,10 +3858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3784,16 +3870,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3802,16 +3888,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3820,101 +3903,104 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3973,6 +4059,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -4388,6 +4477,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>572135</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1520562695(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="13201650"/>
+          <a:ext cx="4515485" cy="3677285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4482,6 +4609,49 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1520563170(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="123825"/>
+          <a:ext cx="2591435" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4666,6 +4836,49 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1520562885(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="476250"/>
+          <a:ext cx="4696460" cy="6096635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4958,157 +5171,189 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="M123" sqref="M123"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="2:2">
       <c r="B64" s="15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5119,103 +5364,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M53"/>
+  <dimension ref="B2:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="3:3">
       <c r="C30" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="2:2">
       <c r="B49" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="11:11">
       <c r="K51" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="8:11">
@@ -5223,7 +5468,7 @@
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="8:11">
@@ -5231,6 +5476,46 @@
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5243,50 +5528,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -5294,335 +5579,335 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="8" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M55" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="3:13">
       <c r="C56" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="3:8">
       <c r="C70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J79" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -5630,267 +5915,267 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5903,12 +6188,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
@@ -5916,195 +6218,195 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="5:8">
       <c r="E3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J42" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J44" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -6114,63 +6416,63 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J47" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6180,30 +6482,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6213,619 +6515,620 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="20" t="s">
-        <v>197</v>
+      <c r="B2" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="20" t="s">
-        <v>201</v>
+      <c r="B6" s="21" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="20" t="s">
-        <v>282</v>
+      <c r="B87" s="21" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>